--- a/@DataTable/DataTable_3000_School.xlsx
+++ b/@DataTable/DataTable_3000_School.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5A1D54-7183-44C4-9279-6B3C05472386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE3918E-260C-4602-A77B-7C6A301AABAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="2640" windowWidth="33225" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5370" yWindow="3810" windowWidth="28110" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JsonTable" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
   </sheetData>

--- a/@DataTable/DataTable_3000_School.xlsx
+++ b/@DataTable/DataTable_3000_School.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE3918E-260C-4602-A77B-7C6A301AABAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AACAC4-A85A-48BB-BFFB-ABE59905771D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="3810" windowWidth="28110" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13965" yWindow="1770" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JsonTable" sheetId="1" r:id="rId1"/>
@@ -41,19 +41,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_school</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_school_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ClubList : Array</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>..\@UnityProject\Assets\@MyProject\Resources\Data\DataTable_3000_School.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아비도스 고등학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게헨나 학원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -61,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +83,11 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,9 +111,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -128,8 +134,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23E87464-C147-41DD-BADD-D5808659CD2A}" name="표1" displayName="표1" ref="A2:C4" totalsRowShown="0">
-  <autoFilter ref="A2:C4" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23E87464-C147-41DD-BADD-D5808659CD2A}" name="표1" displayName="표1" ref="A2:C8" totalsRowShown="0">
+  <autoFilter ref="A2:C8" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String"/>
@@ -402,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -417,7 +423,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -428,7 +434,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -436,7 +442,7 @@
         <v>3001</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>2001</v>
@@ -447,11 +453,14 @@
         <v>3002</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>2002</v>
       </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
